--- a/biology/Botanique/Parc_Sainte-Agathe/Parc_Sainte-Agathe.xlsx
+++ b/biology/Botanique/Parc_Sainte-Agathe/Parc_Sainte-Agathe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Sainte-Agathe est un parc de la ville de Liège situé derrière le couvent Sainte-Agathe dans le quartier administratif Saint-Laurent.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc porte le nom de l'ancien couvent Sainte-Agathe.
 </t>
@@ -543,10 +557,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc conçu et aménagé sur un terrain vague entre 2013 et 2015 par la Ville de Liège, avec la collaboration du bureau d'études Greisch, est inauguré le 27 juin 2015[1].
-Le projet « Saint-Laurent 28 », inauguré le 5 mars 2012, consistant en la création de deux logements, est un des trois passages publics vers le parc Sainte-Agathe[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc conçu et aménagé sur un terrain vague entre 2013 et 2015 par la Ville de Liège, avec la collaboration du bureau d'études Greisch, est inauguré le 27 juin 2015.
+Le projet « Saint-Laurent 28 », inauguré le 5 mars 2012, consistant en la création de deux logements, est un des trois passages publics vers le parc Sainte-Agathe.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc situé au milieu d'un îlot bâti entre les rues Hullos, Publémont et Saint-Laurent possède trois accès. Le parc a 20 mètres de dénivelé entre la rue Hullos et la rue Saint-Laurent. Il possède également un potager collectif de 900 m2[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc situé au milieu d'un îlot bâti entre les rues Hullos, Publémont et Saint-Laurent possède trois accès. Le parc a 20 mètres de dénivelé entre la rue Hullos et la rue Saint-Laurent. Il possède également un potager collectif de 900 m2.
 </t>
         </is>
       </c>
